--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mdk-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mdk-Sdc1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H2">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I2">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J2">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.377875666666666</v>
+        <v>1.410521</v>
       </c>
       <c r="N2">
-        <v>4.133627</v>
+        <v>4.231563</v>
       </c>
       <c r="O2">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="P2">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="Q2">
-        <v>1.705312202925777</v>
+        <v>2.291084811269333</v>
       </c>
       <c r="R2">
-        <v>15.347809826332</v>
+        <v>20.61976330142399</v>
       </c>
       <c r="S2">
-        <v>0.001937302688931839</v>
+        <v>0.004553499085375234</v>
       </c>
       <c r="T2">
-        <v>0.00193730268893184</v>
+        <v>0.004553499085375233</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H3">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I3">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J3">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>36.503158</v>
       </c>
       <c r="O3">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="P3">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="Q3">
-        <v>15.05923993208089</v>
+        <v>19.76381560599822</v>
       </c>
       <c r="R3">
-        <v>135.533159388728</v>
+        <v>177.874340453984</v>
       </c>
       <c r="S3">
-        <v>0.01710789728920964</v>
+        <v>0.03928030767031181</v>
       </c>
       <c r="T3">
-        <v>0.01710789728920965</v>
+        <v>0.0392803076703118</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H4">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I4">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J4">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.451737666666667</v>
+        <v>4.305489000000001</v>
       </c>
       <c r="N4">
-        <v>7.355213</v>
+        <v>12.916467</v>
       </c>
       <c r="O4">
-        <v>0.08864587138537494</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="P4">
-        <v>0.08864587138537493</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="Q4">
-        <v>3.034365336789778</v>
+        <v>6.993331154224</v>
       </c>
       <c r="R4">
-        <v>27.309288031108</v>
+        <v>62.939980388016</v>
       </c>
       <c r="S4">
-        <v>0.003447160066103309</v>
+        <v>0.01389914806202328</v>
       </c>
       <c r="T4">
-        <v>0.003447160066103309</v>
+        <v>0.01389914806202327</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H5">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I5">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J5">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.939698</v>
+        <v>6.304742</v>
       </c>
       <c r="N5">
-        <v>29.819094</v>
+        <v>18.914226</v>
       </c>
       <c r="O5">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="P5">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="Q5">
-        <v>12.30175457978933</v>
+        <v>10.24068314840533</v>
       </c>
       <c r="R5">
-        <v>110.715791218104</v>
+        <v>92.16614833564799</v>
       </c>
       <c r="S5">
-        <v>0.01397528393048315</v>
+        <v>0.02035321482666818</v>
       </c>
       <c r="T5">
-        <v>0.01397528393048316</v>
+        <v>0.02035321482666817</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H6">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I6">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J6">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8153446666666667</v>
+        <v>0.5130036666666666</v>
       </c>
       <c r="N6">
-        <v>2.446034</v>
+        <v>1.539011</v>
       </c>
       <c r="O6">
-        <v>0.02947988254973095</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="P6">
-        <v>0.02947988254973094</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="Q6">
-        <v>1.009102086127111</v>
+        <v>0.833262963703111</v>
       </c>
       <c r="R6">
-        <v>9.081918775144</v>
+        <v>7.499366673327999</v>
       </c>
       <c r="S6">
-        <v>0.001146380223812817</v>
+        <v>0.00165609851038078</v>
       </c>
       <c r="T6">
-        <v>0.001146380223812817</v>
+        <v>0.001656098510380779</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H7">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I7">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J7">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.905288</v>
+        <v>1.818161</v>
       </c>
       <c r="N7">
-        <v>2.715864</v>
+        <v>5.454483</v>
       </c>
       <c r="O7">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="P7">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="Q7">
-        <v>1.120419433269333</v>
+        <v>2.953207397509333</v>
       </c>
       <c r="R7">
-        <v>10.083774899424</v>
+        <v>26.57886657758399</v>
       </c>
       <c r="S7">
-        <v>0.00127284117071356</v>
+        <v>0.005869458484180612</v>
       </c>
       <c r="T7">
-        <v>0.00127284117071356</v>
+        <v>0.005869458484180611</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>10.933347</v>
       </c>
       <c r="I8">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J8">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.377875666666666</v>
+        <v>1.410521</v>
       </c>
       <c r="N8">
-        <v>4.133627</v>
+        <v>4.231563</v>
       </c>
       <c r="O8">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="P8">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="Q8">
-        <v>5.021597595507666</v>
+        <v>5.140571847929</v>
       </c>
       <c r="R8">
-        <v>45.194378359569</v>
+        <v>46.265146631361</v>
       </c>
       <c r="S8">
-        <v>0.005704735184454716</v>
+        <v>0.01021681480000814</v>
       </c>
       <c r="T8">
-        <v>0.005704735184454716</v>
+        <v>0.01021681480000814</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>10.933347</v>
       </c>
       <c r="I9">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J9">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>36.503158</v>
       </c>
       <c r="O9">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="P9">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="Q9">
         <v>44.34463255664733</v>
@@ -1013,10 +1013,10 @@
         <v>399.101693009826</v>
       </c>
       <c r="S9">
-        <v>0.05037727153086373</v>
+        <v>0.08813433828148971</v>
       </c>
       <c r="T9">
-        <v>0.05037727153086373</v>
+        <v>0.08813433828148971</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>10.933347</v>
       </c>
       <c r="I10">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J10">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.451737666666667</v>
+        <v>4.305489000000001</v>
       </c>
       <c r="N10">
-        <v>7.355213</v>
+        <v>12.916467</v>
       </c>
       <c r="O10">
-        <v>0.08864587138537494</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="P10">
-        <v>0.08864587138537493</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="Q10">
-        <v>8.935232887545668</v>
+        <v>15.691135080561</v>
       </c>
       <c r="R10">
-        <v>80.41709598791101</v>
+        <v>141.220215725049</v>
       </c>
       <c r="S10">
-        <v>0.01015078099457419</v>
+        <v>0.0311859119690329</v>
       </c>
       <c r="T10">
-        <v>0.01015078099457419</v>
+        <v>0.0311859119690329</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>10.933347</v>
       </c>
       <c r="I11">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J11">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.939698</v>
+        <v>6.304742</v>
       </c>
       <c r="N11">
-        <v>29.819094</v>
+        <v>18.914226</v>
       </c>
       <c r="O11">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="P11">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="Q11">
-        <v>36.224722436402</v>
+        <v>22.977310677158</v>
       </c>
       <c r="R11">
-        <v>326.022501927618</v>
+        <v>206.795796094422</v>
       </c>
       <c r="S11">
-        <v>0.04115272972388716</v>
+        <v>0.04566708427299765</v>
       </c>
       <c r="T11">
-        <v>0.04115272972388716</v>
+        <v>0.04566708427299764</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>10.933347</v>
       </c>
       <c r="I12">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J12">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8153446666666667</v>
+        <v>0.5130036666666666</v>
       </c>
       <c r="N12">
-        <v>2.446034</v>
+        <v>1.539011</v>
       </c>
       <c r="O12">
-        <v>0.02947988254973095</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="P12">
-        <v>0.02947988254973094</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="Q12">
-        <v>2.971482055088667</v>
+        <v>1.869615699979667</v>
       </c>
       <c r="R12">
-        <v>26.743338495798</v>
+        <v>16.826541299817</v>
       </c>
       <c r="S12">
-        <v>0.003375722149621267</v>
+        <v>0.003715835109196135</v>
       </c>
       <c r="T12">
-        <v>0.003375722149621267</v>
+        <v>0.003715835109196135</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>10.933347</v>
       </c>
       <c r="I13">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J13">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.905288</v>
+        <v>1.818161</v>
       </c>
       <c r="N13">
-        <v>2.715864</v>
+        <v>5.454483</v>
       </c>
       <c r="O13">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="P13">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="Q13">
-        <v>3.299275946312</v>
+        <v>6.626195038289</v>
       </c>
       <c r="R13">
-        <v>29.693483516808</v>
+        <v>59.635755344601</v>
       </c>
       <c r="S13">
-        <v>0.003748109086038465</v>
+        <v>0.01316947015577762</v>
       </c>
       <c r="T13">
-        <v>0.003748109086038465</v>
+        <v>0.01316947015577762</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>1.671495666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H14">
-        <v>5.014487000000001</v>
+        <v>8.22472</v>
       </c>
       <c r="I14">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J14">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.377875666666666</v>
+        <v>1.410521</v>
       </c>
       <c r="N14">
-        <v>4.133627</v>
+        <v>4.231563</v>
       </c>
       <c r="O14">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="P14">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="Q14">
-        <v>2.303113206038778</v>
+        <v>3.867046759706666</v>
       </c>
       <c r="R14">
-        <v>20.728018854349</v>
+        <v>34.80342083735999</v>
       </c>
       <c r="S14">
-        <v>0.002616428475277587</v>
+        <v>0.00768570146195149</v>
       </c>
       <c r="T14">
-        <v>0.002616428475277587</v>
+        <v>0.007685701461951489</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1.671495666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H15">
-        <v>5.014487000000001</v>
+        <v>8.22472</v>
       </c>
       <c r="I15">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J15">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>36.503158</v>
       </c>
       <c r="O15">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="P15">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="Q15">
-        <v>20.33829013888289</v>
+        <v>33.35869485175111</v>
       </c>
       <c r="R15">
-        <v>183.044611249946</v>
+        <v>300.22825366576</v>
       </c>
       <c r="S15">
-        <v>0.02310510891010651</v>
+        <v>0.06629994042542819</v>
       </c>
       <c r="T15">
-        <v>0.02310510891010651</v>
+        <v>0.06629994042542819</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>1.671495666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H16">
-        <v>5.014487000000001</v>
+        <v>8.22472</v>
       </c>
       <c r="I16">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J16">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.451737666666667</v>
+        <v>4.305489000000001</v>
       </c>
       <c r="N16">
-        <v>7.355213</v>
+        <v>12.916467</v>
       </c>
       <c r="O16">
-        <v>0.08864587138537494</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="P16">
-        <v>0.08864587138537493</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="Q16">
-        <v>4.098068885636779</v>
+        <v>11.80381382936</v>
       </c>
       <c r="R16">
-        <v>36.88261997073101</v>
+        <v>106.23432446424</v>
       </c>
       <c r="S16">
-        <v>0.004655569729666438</v>
+        <v>0.02345991523821061</v>
       </c>
       <c r="T16">
-        <v>0.004655569729666438</v>
+        <v>0.02345991523821061</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>1.671495666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H17">
-        <v>5.014487000000001</v>
+        <v>8.22472</v>
       </c>
       <c r="I17">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J17">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.939698</v>
+        <v>6.304742</v>
       </c>
       <c r="N17">
-        <v>29.819094</v>
+        <v>18.914226</v>
       </c>
       <c r="O17">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="P17">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="Q17">
-        <v>16.61416213497533</v>
+        <v>17.28491254074667</v>
       </c>
       <c r="R17">
-        <v>149.527459214778</v>
+        <v>155.56421286672</v>
       </c>
       <c r="S17">
-        <v>0.01887435093891612</v>
+        <v>0.03435352242655512</v>
       </c>
       <c r="T17">
-        <v>0.01887435093891612</v>
+        <v>0.03435352242655512</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>1.671495666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H18">
-        <v>5.014487000000001</v>
+        <v>8.22472</v>
       </c>
       <c r="I18">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J18">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.8153446666666667</v>
+        <v>0.5130036666666666</v>
       </c>
       <c r="N18">
-        <v>2.446034</v>
+        <v>1.539011</v>
       </c>
       <c r="O18">
-        <v>0.02947988254973095</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="P18">
-        <v>0.02947988254973094</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="Q18">
-        <v>1.362845077173111</v>
+        <v>1.406437172435555</v>
       </c>
       <c r="R18">
-        <v>12.265605694558</v>
+        <v>12.65793455192</v>
       </c>
       <c r="S18">
-        <v>0.001548246372761049</v>
+        <v>0.002795274250356056</v>
       </c>
       <c r="T18">
-        <v>0.001548246372761049</v>
+        <v>0.002795274250356056</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>1.671495666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H19">
-        <v>5.014487000000001</v>
+        <v>8.22472</v>
       </c>
       <c r="I19">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J19">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.905288</v>
+        <v>1.818161</v>
       </c>
       <c r="N19">
-        <v>2.715864</v>
+        <v>5.454483</v>
       </c>
       <c r="O19">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="P19">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="Q19">
-        <v>1.513184969085334</v>
+        <v>4.984621713306666</v>
       </c>
       <c r="R19">
-        <v>13.618664721768</v>
+        <v>44.86159541975999</v>
       </c>
       <c r="S19">
-        <v>0.001719038487164248</v>
+        <v>0.00990686608406623</v>
       </c>
       <c r="T19">
-        <v>0.001719038487164248</v>
+        <v>0.00990686608406623</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>18.32861766666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H20">
-        <v>54.985853</v>
+        <v>7.03281</v>
       </c>
       <c r="I20">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J20">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.377875666666666</v>
+        <v>1.410521</v>
       </c>
       <c r="N20">
-        <v>4.133627</v>
+        <v>4.231563</v>
       </c>
       <c r="O20">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="P20">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="Q20">
-        <v>25.25455628653678</v>
+        <v>3.30664206467</v>
       </c>
       <c r="R20">
-        <v>227.291006578831</v>
+        <v>29.75977858202999</v>
       </c>
       <c r="S20">
-        <v>0.02869018336803495</v>
+        <v>0.006571904952220508</v>
       </c>
       <c r="T20">
-        <v>0.02869018336803495</v>
+        <v>0.006571904952220507</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>18.32861766666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H21">
-        <v>54.985853</v>
+        <v>7.03281</v>
       </c>
       <c r="I21">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J21">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>36.503158</v>
       </c>
       <c r="O21">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="P21">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="Q21">
-        <v>223.0174755359749</v>
+        <v>28.52441940155333</v>
       </c>
       <c r="R21">
-        <v>2007.157279823774</v>
+        <v>256.71977461398</v>
       </c>
       <c r="S21">
-        <v>0.2533567485727067</v>
+        <v>0.056691885440885</v>
       </c>
       <c r="T21">
-        <v>0.2533567485727068</v>
+        <v>0.056691885440885</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>18.32861766666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H22">
-        <v>54.985853</v>
+        <v>7.03281</v>
       </c>
       <c r="I22">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J22">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.451737666666667</v>
+        <v>4.305489000000001</v>
       </c>
       <c r="N22">
-        <v>7.355213</v>
+        <v>12.916467</v>
       </c>
       <c r="O22">
-        <v>0.08864587138537494</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="P22">
-        <v>0.08864587138537493</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="Q22">
-        <v>44.93696231129878</v>
+        <v>10.09322869803</v>
       </c>
       <c r="R22">
-        <v>404.432660801689</v>
+        <v>90.83905828227</v>
       </c>
       <c r="S22">
-        <v>0.05105018176070422</v>
+        <v>0.02006015116459162</v>
       </c>
       <c r="T22">
-        <v>0.05105018176070421</v>
+        <v>0.02006015116459161</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>18.32861766666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H23">
-        <v>54.985853</v>
+        <v>7.03281</v>
       </c>
       <c r="I23">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J23">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>9.939698</v>
+        <v>6.304742</v>
       </c>
       <c r="N23">
-        <v>29.819094</v>
+        <v>18.914226</v>
       </c>
       <c r="O23">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="P23">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="Q23">
-        <v>182.1809243641313</v>
+        <v>14.78001752834</v>
       </c>
       <c r="R23">
-        <v>1639.628319277182</v>
+        <v>133.02015775506</v>
       </c>
       <c r="S23">
-        <v>0.2069647974354413</v>
+        <v>0.02937507855060125</v>
       </c>
       <c r="T23">
-        <v>0.2069647974354413</v>
+        <v>0.02937507855060125</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>18.32861766666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H24">
-        <v>54.985853</v>
+        <v>7.03281</v>
       </c>
       <c r="I24">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J24">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.8153446666666667</v>
+        <v>0.5130036666666666</v>
       </c>
       <c r="N24">
-        <v>2.446034</v>
+        <v>1.539011</v>
       </c>
       <c r="O24">
-        <v>0.02947988254973095</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="P24">
-        <v>0.02947988254973094</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="Q24">
-        <v>14.94414066188911</v>
+        <v>1.202619105656666</v>
       </c>
       <c r="R24">
-        <v>134.497265957002</v>
+        <v>10.82357195091</v>
       </c>
       <c r="S24">
-        <v>0.01697713992686036</v>
+        <v>0.002390188687353074</v>
       </c>
       <c r="T24">
-        <v>0.01697713992686036</v>
+        <v>0.002390188687353074</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>18.32861766666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H25">
-        <v>54.985853</v>
+        <v>7.03281</v>
       </c>
       <c r="I25">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J25">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.905288</v>
+        <v>1.818161</v>
       </c>
       <c r="N25">
-        <v>2.715864</v>
+        <v>5.454483</v>
       </c>
       <c r="O25">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="P25">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="Q25">
-        <v>16.59267763022133</v>
+        <v>4.262260287469999</v>
       </c>
       <c r="R25">
-        <v>149.334098671992</v>
+        <v>38.36034258722999</v>
       </c>
       <c r="S25">
-        <v>0.01884994368447973</v>
+        <v>0.008471182832325213</v>
       </c>
       <c r="T25">
-        <v>0.01884994368447973</v>
+        <v>0.008471182832325213</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.637834666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H26">
-        <v>13.913504</v>
+        <v>12.847605</v>
       </c>
       <c r="I26">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J26">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.377875666666666</v>
+        <v>1.410521</v>
       </c>
       <c r="N26">
-        <v>4.133627</v>
+        <v>4.231563</v>
       </c>
       <c r="O26">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="P26">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="Q26">
-        <v>6.39035953322311</v>
+        <v>6.040605550734998</v>
       </c>
       <c r="R26">
-        <v>57.51323579900799</v>
+        <v>54.36544995661499</v>
       </c>
       <c r="S26">
-        <v>0.007259703346820641</v>
+        <v>0.01200561922242645</v>
       </c>
       <c r="T26">
-        <v>0.007259703346820641</v>
+        <v>0.01200561922242645</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>4.637834666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H27">
-        <v>13.913504</v>
+        <v>12.847605</v>
       </c>
       <c r="I27">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J27">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>36.503158</v>
       </c>
       <c r="O27">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="P27">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="Q27">
-        <v>56.43187053840355</v>
+        <v>52.10868391517666</v>
       </c>
       <c r="R27">
-        <v>507.886834845632</v>
+        <v>468.9781552365899</v>
       </c>
       <c r="S27">
-        <v>0.06410885604872492</v>
+        <v>0.1035652819925096</v>
       </c>
       <c r="T27">
-        <v>0.06410885604872492</v>
+        <v>0.1035652819925096</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>4.637834666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H28">
-        <v>13.913504</v>
+        <v>12.847605</v>
       </c>
       <c r="I28">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J28">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>2.451737666666667</v>
+        <v>4.305489000000001</v>
       </c>
       <c r="N28">
-        <v>7.355213</v>
+        <v>12.916467</v>
       </c>
       <c r="O28">
-        <v>0.08864587138537494</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="P28">
-        <v>0.08864587138537493</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="Q28">
-        <v>11.37075394403911</v>
+        <v>18.438407334615</v>
       </c>
       <c r="R28">
-        <v>102.336785496352</v>
+        <v>165.945666011535</v>
       </c>
       <c r="S28">
-        <v>0.01291763006983424</v>
+        <v>0.03664607722986445</v>
       </c>
       <c r="T28">
-        <v>0.01291763006983424</v>
+        <v>0.03664607722986445</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>4.637834666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H29">
-        <v>13.913504</v>
+        <v>12.847605</v>
       </c>
       <c r="I29">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J29">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>9.939698</v>
+        <v>6.304742</v>
       </c>
       <c r="N29">
-        <v>29.819094</v>
+        <v>18.914226</v>
       </c>
       <c r="O29">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="P29">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="Q29">
-        <v>46.09867596059733</v>
+        <v>27.00027828097</v>
       </c>
       <c r="R29">
-        <v>414.888083645376</v>
+        <v>243.00250452873</v>
       </c>
       <c r="S29">
-        <v>0.05236993480808967</v>
+        <v>0.05366267623639731</v>
       </c>
       <c r="T29">
-        <v>0.05236993480808967</v>
+        <v>0.0536626762363973</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>4.637834666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H30">
-        <v>13.913504</v>
+        <v>12.847605</v>
       </c>
       <c r="I30">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J30">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.8153446666666667</v>
+        <v>0.5130036666666666</v>
       </c>
       <c r="N30">
-        <v>2.446034</v>
+        <v>1.539011</v>
       </c>
       <c r="O30">
-        <v>0.02947988254973095</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="P30">
-        <v>0.02947988254973094</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="Q30">
-        <v>3.781433760348444</v>
+        <v>2.196956157628333</v>
       </c>
       <c r="R30">
-        <v>34.032903843136</v>
+        <v>19.772605418655</v>
       </c>
       <c r="S30">
-        <v>0.004295859596484415</v>
+        <v>0.004366419700031821</v>
       </c>
       <c r="T30">
-        <v>0.004295859596484414</v>
+        <v>0.004366419700031821</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>4.637834666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H31">
-        <v>13.913504</v>
+        <v>12.847605</v>
       </c>
       <c r="I31">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J31">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>0.905288</v>
+        <v>1.818161</v>
       </c>
       <c r="N31">
-        <v>2.715864</v>
+        <v>5.454483</v>
       </c>
       <c r="O31">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="P31">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="Q31">
-        <v>4.198576069717333</v>
+        <v>7.786338118134998</v>
       </c>
       <c r="R31">
-        <v>37.787184627456</v>
+        <v>70.07704306321499</v>
       </c>
       <c r="S31">
-        <v>0.004769749900102185</v>
+        <v>0.0154752383346764</v>
       </c>
       <c r="T31">
-        <v>0.004769749900102185</v>
+        <v>0.0154752383346764</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>2.306614666666666</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H32">
-        <v>6.919843999999999</v>
+        <v>13.006667</v>
       </c>
       <c r="I32">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J32">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.377875666666666</v>
+        <v>1.410521</v>
       </c>
       <c r="N32">
-        <v>4.133627</v>
+        <v>4.231563</v>
       </c>
       <c r="O32">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="P32">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="Q32">
-        <v>3.178228221576444</v>
+        <v>6.115392314502333</v>
       </c>
       <c r="R32">
-        <v>28.604053994188</v>
+        <v>55.038530830521</v>
       </c>
       <c r="S32">
-        <v>0.003610594042038348</v>
+        <v>0.01215425687160368</v>
       </c>
       <c r="T32">
-        <v>0.003610594042038348</v>
+        <v>0.01215425687160368</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>2.306614666666666</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H33">
-        <v>6.919843999999999</v>
+        <v>13.006667</v>
       </c>
       <c r="I33">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J33">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>36.503158</v>
       </c>
       <c r="O33">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="P33">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="Q33">
-        <v>28.06623987415022</v>
+        <v>52.75382450604289</v>
       </c>
       <c r="R33">
-        <v>252.596158867352</v>
+        <v>474.784420554386</v>
       </c>
       <c r="S33">
-        <v>0.03188436808410252</v>
+        <v>0.1048474899125299</v>
       </c>
       <c r="T33">
-        <v>0.03188436808410253</v>
+        <v>0.1048474899125299</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>2.306614666666666</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H34">
-        <v>6.919843999999999</v>
+        <v>13.006667</v>
       </c>
       <c r="I34">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J34">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>2.451737666666667</v>
+        <v>4.305489000000001</v>
       </c>
       <c r="N34">
-        <v>7.355213</v>
+        <v>12.916467</v>
       </c>
       <c r="O34">
-        <v>0.08864587138537494</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="P34">
-        <v>0.08864587138537493</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="Q34">
-        <v>5.655214060752444</v>
+        <v>18.666687231721</v>
       </c>
       <c r="R34">
-        <v>50.89692654677199</v>
+        <v>168.000185085489</v>
       </c>
       <c r="S34">
-        <v>0.006424548764492541</v>
+        <v>0.03709978033922506</v>
       </c>
       <c r="T34">
-        <v>0.00642454876449254</v>
+        <v>0.03709978033922505</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>2.306614666666666</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H35">
-        <v>6.919843999999999</v>
+        <v>13.006667</v>
       </c>
       <c r="I35">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J35">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>9.939698</v>
+        <v>6.304742</v>
       </c>
       <c r="N35">
-        <v>29.819094</v>
+        <v>18.914226</v>
       </c>
       <c r="O35">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="P35">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="Q35">
-        <v>22.92705318903733</v>
+        <v>27.33455990497134</v>
       </c>
       <c r="R35">
-        <v>206.343478701336</v>
+        <v>246.011039144742</v>
       </c>
       <c r="S35">
-        <v>0.02604604700312376</v>
+        <v>0.05432705629848002</v>
       </c>
       <c r="T35">
-        <v>0.02604604700312376</v>
+        <v>0.05432705629848</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>2.306614666666666</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H36">
-        <v>6.919843999999999</v>
+        <v>13.006667</v>
       </c>
       <c r="I36">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J36">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.8153446666666667</v>
+        <v>0.5130036666666666</v>
       </c>
       <c r="N36">
-        <v>2.446034</v>
+        <v>1.539011</v>
       </c>
       <c r="O36">
-        <v>0.02947988254973095</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="P36">
-        <v>0.02947988254973094</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="Q36">
-        <v>1.880685966521778</v>
+        <v>2.224155954037445</v>
       </c>
       <c r="R36">
-        <v>16.926173698696</v>
+        <v>20.017403586337</v>
       </c>
       <c r="S36">
-        <v>0.002136534280191036</v>
+        <v>0.004420478915763194</v>
       </c>
       <c r="T36">
-        <v>0.002136534280191036</v>
+        <v>0.004420478915763194</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>2.306614666666666</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H37">
-        <v>6.919843999999999</v>
+        <v>13.006667</v>
       </c>
       <c r="I37">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J37">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L37">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>0.905288</v>
+        <v>1.818161</v>
       </c>
       <c r="N37">
-        <v>2.715864</v>
+        <v>5.454483</v>
       </c>
       <c r="O37">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="P37">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="Q37">
-        <v>2.088150578357333</v>
+        <v>7.882738226462334</v>
       </c>
       <c r="R37">
-        <v>18.793355205216</v>
+        <v>70.944644038161</v>
       </c>
       <c r="S37">
-        <v>0.002372222355182612</v>
+        <v>0.01566683220450587</v>
       </c>
       <c r="T37">
-        <v>0.002372222355182612</v>
+        <v>0.01566683220450586</v>
       </c>
     </row>
   </sheetData>
